--- a/Room_Lab_C                                             .xlsx
+++ b/Room_Lab_C                                             .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasim\Desktop\sitting-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9E8965-F5DD-44F1-AB71-7B3320D9B9D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E44F52-D24D-4360-BF73-25094886CD8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{36402C56-9899-404F-A710-F6E5F2F9EB6E}"/>
+    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{58CDF539-97A4-4317-A323-60D8B5EC0EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B18CA56-2BE0-4578-81B9-0E4237C46EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618E109-0702-4381-B1FE-D181B054BAD8}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -384,53 +384,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1">
-        <v>45666</v>
+        <v>47895</v>
       </c>
       <c r="C1">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D1">
-        <v>31111</v>
+        <v>35489</v>
       </c>
       <c r="E1">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2">
-        <v>45787</v>
+        <v>45555</v>
       </c>
       <c r="E2">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34511</v>
+        <v>35487</v>
       </c>
       <c r="B3">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C3">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
